--- a/ConsoleApplication2/ПП_2024_ПС-32-Ляшко.xlsx
+++ b/ConsoleApplication2/ПП_2024_ПС-32-Ляшко.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\VOLGATECH_WORK\ПП\ConsoleApplication2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648ABE0F-8F2A-4F3A-BA2D-00E8363BDF3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AC7E37-717A-490D-B914-E8F08C58B391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3DC7AEC-F58C-4FBE-8FF7-9AE7BCE6590F}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{B3DC7AEC-F58C-4FBE-8FF7-9AE7BCE6590F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>Время выполнения</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Эффективность распараллеливания  3 ядер</t>
+  </si>
+  <si>
+    <t>Время выполнения 2 ядер</t>
   </si>
 </sst>
 </file>
@@ -230,10 +233,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -12070,8 +12073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C28315-A4AE-478E-A9F6-2B409DBD1AEF}">
   <dimension ref="A1:AJ139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AO162" sqref="AO162"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AX98" sqref="AX98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12080,24 +12083,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
@@ -12362,42 +12365,42 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="T8" s="12" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="T8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
     </row>
     <row r="9" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
@@ -12510,7 +12513,7 @@
         <v>1.021516393442623</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ref="C10:Q10" si="0">$B$3/D3</f>
+        <f t="shared" ref="D10:Q10" si="0">$B$3/D3</f>
         <v>1.0320910973084887</v>
       </c>
       <c r="E10" s="4">
@@ -13042,144 +13045,144 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="U15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="U15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>2</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>3</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>4</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>5</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>6</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <v>7</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <v>8</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <v>9</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <v>10</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <v>11</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <v>12</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="12">
         <v>13</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="12">
         <v>14</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="12">
         <v>15</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="12">
         <v>16</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="12">
         <v>1</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V16" s="12">
         <v>2</v>
       </c>
-      <c r="W16" s="13">
+      <c r="W16" s="12">
         <v>3</v>
       </c>
-      <c r="X16" s="13">
+      <c r="X16" s="12">
         <v>4</v>
       </c>
-      <c r="Y16" s="13">
+      <c r="Y16" s="12">
         <v>5</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="Z16" s="12">
         <v>6</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AA16" s="12">
         <v>7</v>
       </c>
-      <c r="AB16" s="13">
+      <c r="AB16" s="12">
         <v>8</v>
       </c>
-      <c r="AC16" s="13">
+      <c r="AC16" s="12">
         <v>9</v>
       </c>
-      <c r="AD16" s="13">
+      <c r="AD16" s="12">
         <v>10</v>
       </c>
-      <c r="AE16" s="13">
+      <c r="AE16" s="12">
         <v>11</v>
       </c>
-      <c r="AF16" s="13">
+      <c r="AF16" s="12">
         <v>12</v>
       </c>
-      <c r="AG16" s="13">
+      <c r="AG16" s="12">
         <v>13</v>
       </c>
-      <c r="AH16" s="13">
+      <c r="AH16" s="12">
         <v>14</v>
       </c>
-      <c r="AI16" s="13">
+      <c r="AI16" s="12">
         <v>15</v>
       </c>
-      <c r="AJ16" s="13">
+      <c r="AJ16" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13192,7 +13195,7 @@
         <v>997</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C16:Q17" si="6">C$3</f>
+        <f t="shared" ref="C17:Q17" si="6">C$3</f>
         <v>976</v>
       </c>
       <c r="D17">
@@ -13320,144 +13323,144 @@
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="U38" s="12" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="U38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="12"/>
-      <c r="AH38" s="12"/>
-      <c r="AI38" s="12"/>
-      <c r="AJ38" s="12"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>1</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>2</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>3</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <v>4</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>5</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>6</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
         <v>7</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="12">
         <v>8</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="12">
         <v>9</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="12">
         <v>10</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="12">
         <v>11</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="12">
         <v>12</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="12">
         <v>13</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="12">
         <v>14</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="12">
         <v>15</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="12">
         <v>16</v>
       </c>
       <c r="T39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U39" s="13">
+      <c r="U39" s="12">
         <v>1</v>
       </c>
-      <c r="V39" s="13">
+      <c r="V39" s="12">
         <v>2</v>
       </c>
-      <c r="W39" s="13">
+      <c r="W39" s="12">
         <v>3</v>
       </c>
-      <c r="X39" s="13">
+      <c r="X39" s="12">
         <v>4</v>
       </c>
-      <c r="Y39" s="13">
+      <c r="Y39" s="12">
         <v>5</v>
       </c>
-      <c r="Z39" s="13">
+      <c r="Z39" s="12">
         <v>6</v>
       </c>
-      <c r="AA39" s="13">
+      <c r="AA39" s="12">
         <v>7</v>
       </c>
-      <c r="AB39" s="13">
+      <c r="AB39" s="12">
         <v>8</v>
       </c>
-      <c r="AC39" s="13">
+      <c r="AC39" s="12">
         <v>9</v>
       </c>
-      <c r="AD39" s="13">
+      <c r="AD39" s="12">
         <v>10</v>
       </c>
-      <c r="AE39" s="13">
+      <c r="AE39" s="12">
         <v>11</v>
       </c>
-      <c r="AF39" s="13">
+      <c r="AF39" s="12">
         <v>12</v>
       </c>
-      <c r="AG39" s="13">
+      <c r="AG39" s="12">
         <v>13</v>
       </c>
-      <c r="AH39" s="13">
+      <c r="AH39" s="12">
         <v>14</v>
       </c>
-      <c r="AI39" s="13">
+      <c r="AI39" s="12">
         <v>15</v>
       </c>
-      <c r="AJ39" s="13">
+      <c r="AJ39" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13598,144 +13601,144 @@
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="U62" s="12" t="s">
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="U62" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="12"/>
-      <c r="Z62" s="12"/>
-      <c r="AA62" s="12"/>
-      <c r="AB62" s="12"/>
-      <c r="AC62" s="12"/>
-      <c r="AD62" s="12"/>
-      <c r="AE62" s="12"/>
-      <c r="AF62" s="12"/>
-      <c r="AG62" s="12"/>
-      <c r="AH62" s="12"/>
-      <c r="AI62" s="12"/>
-      <c r="AJ62" s="12"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+      <c r="AA62" s="13"/>
+      <c r="AB62" s="13"/>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="13"/>
+      <c r="AE62" s="13"/>
+      <c r="AF62" s="13"/>
+      <c r="AG62" s="13"/>
+      <c r="AH62" s="13"/>
+      <c r="AI62" s="13"/>
+      <c r="AJ62" s="13"/>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>1</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="12">
         <v>2</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="12">
         <v>3</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="12">
         <v>4</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="12">
         <v>5</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="12">
         <v>6</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="12">
         <v>7</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="12">
         <v>8</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="12">
         <v>9</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K63" s="12">
         <v>10</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L63" s="12">
         <v>11</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M63" s="12">
         <v>12</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N63" s="12">
         <v>13</v>
       </c>
-      <c r="O63" s="13">
+      <c r="O63" s="12">
         <v>14</v>
       </c>
-      <c r="P63" s="13">
+      <c r="P63" s="12">
         <v>15</v>
       </c>
-      <c r="Q63" s="13">
+      <c r="Q63" s="12">
         <v>16</v>
       </c>
       <c r="T63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U63" s="13">
+      <c r="U63" s="12">
         <v>1</v>
       </c>
-      <c r="V63" s="13">
+      <c r="V63" s="12">
         <v>2</v>
       </c>
-      <c r="W63" s="13">
+      <c r="W63" s="12">
         <v>3</v>
       </c>
-      <c r="X63" s="13">
+      <c r="X63" s="12">
         <v>4</v>
       </c>
-      <c r="Y63" s="13">
+      <c r="Y63" s="12">
         <v>5</v>
       </c>
-      <c r="Z63" s="13">
+      <c r="Z63" s="12">
         <v>6</v>
       </c>
-      <c r="AA63" s="13">
+      <c r="AA63" s="12">
         <v>7</v>
       </c>
-      <c r="AB63" s="13">
+      <c r="AB63" s="12">
         <v>8</v>
       </c>
-      <c r="AC63" s="13">
+      <c r="AC63" s="12">
         <v>9</v>
       </c>
-      <c r="AD63" s="13">
+      <c r="AD63" s="12">
         <v>10</v>
       </c>
-      <c r="AE63" s="13">
+      <c r="AE63" s="12">
         <v>11</v>
       </c>
-      <c r="AF63" s="13">
+      <c r="AF63" s="12">
         <v>12</v>
       </c>
-      <c r="AG63" s="13">
+      <c r="AG63" s="12">
         <v>13</v>
       </c>
-      <c r="AH63" s="13">
+      <c r="AH63" s="12">
         <v>14</v>
       </c>
-      <c r="AI63" s="13">
+      <c r="AI63" s="12">
         <v>15</v>
       </c>
-      <c r="AJ63" s="13">
+      <c r="AJ63" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13876,144 +13879,144 @@
       </c>
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="U86" s="12" t="s">
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="U86" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="V86" s="12"/>
-      <c r="W86" s="12"/>
-      <c r="X86" s="12"/>
-      <c r="Y86" s="12"/>
-      <c r="Z86" s="12"/>
-      <c r="AA86" s="12"/>
-      <c r="AB86" s="12"/>
-      <c r="AC86" s="12"/>
-      <c r="AD86" s="12"/>
-      <c r="AE86" s="12"/>
-      <c r="AF86" s="12"/>
-      <c r="AG86" s="12"/>
-      <c r="AH86" s="12"/>
-      <c r="AI86" s="12"/>
-      <c r="AJ86" s="12"/>
+      <c r="V86" s="13"/>
+      <c r="W86" s="13"/>
+      <c r="X86" s="13"/>
+      <c r="Y86" s="13"/>
+      <c r="Z86" s="13"/>
+      <c r="AA86" s="13"/>
+      <c r="AB86" s="13"/>
+      <c r="AC86" s="13"/>
+      <c r="AD86" s="13"/>
+      <c r="AE86" s="13"/>
+      <c r="AF86" s="13"/>
+      <c r="AG86" s="13"/>
+      <c r="AH86" s="13"/>
+      <c r="AI86" s="13"/>
+      <c r="AJ86" s="13"/>
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="12">
         <v>1</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="12">
         <v>2</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="12">
         <v>3</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="12">
         <v>4</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="12">
         <v>5</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G87" s="12">
         <v>6</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H87" s="12">
         <v>7</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I87" s="12">
         <v>8</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J87" s="12">
         <v>9</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K87" s="12">
         <v>10</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L87" s="12">
         <v>11</v>
       </c>
-      <c r="M87" s="13">
+      <c r="M87" s="12">
         <v>12</v>
       </c>
-      <c r="N87" s="13">
+      <c r="N87" s="12">
         <v>13</v>
       </c>
-      <c r="O87" s="13">
+      <c r="O87" s="12">
         <v>14</v>
       </c>
-      <c r="P87" s="13">
+      <c r="P87" s="12">
         <v>15</v>
       </c>
-      <c r="Q87" s="13">
+      <c r="Q87" s="12">
         <v>16</v>
       </c>
       <c r="T87" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U87" s="13">
+      <c r="U87" s="12">
         <v>1</v>
       </c>
-      <c r="V87" s="13">
+      <c r="V87" s="12">
         <v>2</v>
       </c>
-      <c r="W87" s="13">
+      <c r="W87" s="12">
         <v>3</v>
       </c>
-      <c r="X87" s="13">
+      <c r="X87" s="12">
         <v>4</v>
       </c>
-      <c r="Y87" s="13">
+      <c r="Y87" s="12">
         <v>5</v>
       </c>
-      <c r="Z87" s="13">
+      <c r="Z87" s="12">
         <v>6</v>
       </c>
-      <c r="AA87" s="13">
+      <c r="AA87" s="12">
         <v>7</v>
       </c>
-      <c r="AB87" s="13">
+      <c r="AB87" s="12">
         <v>8</v>
       </c>
-      <c r="AC87" s="13">
+      <c r="AC87" s="12">
         <v>9</v>
       </c>
-      <c r="AD87" s="13">
+      <c r="AD87" s="12">
         <v>10</v>
       </c>
-      <c r="AE87" s="13">
+      <c r="AE87" s="12">
         <v>11</v>
       </c>
-      <c r="AF87" s="13">
+      <c r="AF87" s="12">
         <v>12</v>
       </c>
-      <c r="AG87" s="13">
+      <c r="AG87" s="12">
         <v>13</v>
       </c>
-      <c r="AH87" s="13">
+      <c r="AH87" s="12">
         <v>14</v>
       </c>
-      <c r="AI87" s="13">
+      <c r="AI87" s="12">
         <v>15</v>
       </c>
-      <c r="AJ87" s="13">
+      <c r="AJ87" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14161,144 +14164,144 @@
       <c r="R106" s="1"/>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
-      <c r="U110" s="12" t="s">
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="13"/>
+      <c r="O110" s="13"/>
+      <c r="P110" s="13"/>
+      <c r="Q110" s="13"/>
+      <c r="U110" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="V110" s="12"/>
-      <c r="W110" s="12"/>
-      <c r="X110" s="12"/>
-      <c r="Y110" s="12"/>
-      <c r="Z110" s="12"/>
-      <c r="AA110" s="12"/>
-      <c r="AB110" s="12"/>
-      <c r="AC110" s="12"/>
-      <c r="AD110" s="12"/>
-      <c r="AE110" s="12"/>
-      <c r="AF110" s="12"/>
-      <c r="AG110" s="12"/>
-      <c r="AH110" s="12"/>
-      <c r="AI110" s="12"/>
-      <c r="AJ110" s="12"/>
+      <c r="V110" s="13"/>
+      <c r="W110" s="13"/>
+      <c r="X110" s="13"/>
+      <c r="Y110" s="13"/>
+      <c r="Z110" s="13"/>
+      <c r="AA110" s="13"/>
+      <c r="AB110" s="13"/>
+      <c r="AC110" s="13"/>
+      <c r="AD110" s="13"/>
+      <c r="AE110" s="13"/>
+      <c r="AF110" s="13"/>
+      <c r="AG110" s="13"/>
+      <c r="AH110" s="13"/>
+      <c r="AI110" s="13"/>
+      <c r="AJ110" s="13"/>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="13">
+      <c r="B111" s="12">
         <v>1</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="12">
         <v>2</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="12">
         <v>3</v>
       </c>
-      <c r="E111" s="13">
+      <c r="E111" s="12">
         <v>4</v>
       </c>
-      <c r="F111" s="13">
+      <c r="F111" s="12">
         <v>5</v>
       </c>
-      <c r="G111" s="13">
+      <c r="G111" s="12">
         <v>6</v>
       </c>
-      <c r="H111" s="13">
+      <c r="H111" s="12">
         <v>7</v>
       </c>
-      <c r="I111" s="13">
+      <c r="I111" s="12">
         <v>8</v>
       </c>
-      <c r="J111" s="13">
+      <c r="J111" s="12">
         <v>9</v>
       </c>
-      <c r="K111" s="13">
+      <c r="K111" s="12">
         <v>10</v>
       </c>
-      <c r="L111" s="13">
+      <c r="L111" s="12">
         <v>11</v>
       </c>
-      <c r="M111" s="13">
+      <c r="M111" s="12">
         <v>12</v>
       </c>
-      <c r="N111" s="13">
+      <c r="N111" s="12">
         <v>13</v>
       </c>
-      <c r="O111" s="13">
+      <c r="O111" s="12">
         <v>14</v>
       </c>
-      <c r="P111" s="13">
+      <c r="P111" s="12">
         <v>15</v>
       </c>
-      <c r="Q111" s="13">
+      <c r="Q111" s="12">
         <v>16</v>
       </c>
       <c r="T111" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U111" s="13">
+      <c r="U111" s="12">
         <v>1</v>
       </c>
-      <c r="V111" s="13">
+      <c r="V111" s="12">
         <v>2</v>
       </c>
-      <c r="W111" s="13">
+      <c r="W111" s="12">
         <v>3</v>
       </c>
-      <c r="X111" s="13">
+      <c r="X111" s="12">
         <v>4</v>
       </c>
-      <c r="Y111" s="13">
+      <c r="Y111" s="12">
         <v>5</v>
       </c>
-      <c r="Z111" s="13">
+      <c r="Z111" s="12">
         <v>6</v>
       </c>
-      <c r="AA111" s="13">
+      <c r="AA111" s="12">
         <v>7</v>
       </c>
-      <c r="AB111" s="13">
+      <c r="AB111" s="12">
         <v>8</v>
       </c>
-      <c r="AC111" s="13">
+      <c r="AC111" s="12">
         <v>9</v>
       </c>
-      <c r="AD111" s="13">
+      <c r="AD111" s="12">
         <v>10</v>
       </c>
-      <c r="AE111" s="13">
+      <c r="AE111" s="12">
         <v>11</v>
       </c>
-      <c r="AF111" s="13">
+      <c r="AF111" s="12">
         <v>12</v>
       </c>
-      <c r="AG111" s="13">
+      <c r="AG111" s="12">
         <v>13</v>
       </c>
-      <c r="AH111" s="13">
+      <c r="AH111" s="12">
         <v>14</v>
       </c>
-      <c r="AI111" s="13">
+      <c r="AI111" s="12">
         <v>15</v>
       </c>
-      <c r="AJ111" s="13">
+      <c r="AJ111" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14575,144 +14578,144 @@
       </c>
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
-      <c r="L136" s="12"/>
-      <c r="M136" s="12"/>
-      <c r="N136" s="12"/>
-      <c r="O136" s="12"/>
-      <c r="P136" s="12"/>
-      <c r="Q136" s="12"/>
-      <c r="U136" s="12" t="s">
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="13"/>
+      <c r="M136" s="13"/>
+      <c r="N136" s="13"/>
+      <c r="O136" s="13"/>
+      <c r="P136" s="13"/>
+      <c r="Q136" s="13"/>
+      <c r="U136" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="V136" s="12"/>
-      <c r="W136" s="12"/>
-      <c r="X136" s="12"/>
-      <c r="Y136" s="12"/>
-      <c r="Z136" s="12"/>
-      <c r="AA136" s="12"/>
-      <c r="AB136" s="12"/>
-      <c r="AC136" s="12"/>
-      <c r="AD136" s="12"/>
-      <c r="AE136" s="12"/>
-      <c r="AF136" s="12"/>
-      <c r="AG136" s="12"/>
-      <c r="AH136" s="12"/>
-      <c r="AI136" s="12"/>
-      <c r="AJ136" s="12"/>
+      <c r="V136" s="13"/>
+      <c r="W136" s="13"/>
+      <c r="X136" s="13"/>
+      <c r="Y136" s="13"/>
+      <c r="Z136" s="13"/>
+      <c r="AA136" s="13"/>
+      <c r="AB136" s="13"/>
+      <c r="AC136" s="13"/>
+      <c r="AD136" s="13"/>
+      <c r="AE136" s="13"/>
+      <c r="AF136" s="13"/>
+      <c r="AG136" s="13"/>
+      <c r="AH136" s="13"/>
+      <c r="AI136" s="13"/>
+      <c r="AJ136" s="13"/>
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B137" s="13">
+      <c r="B137" s="12">
         <v>1</v>
       </c>
-      <c r="C137" s="13">
+      <c r="C137" s="12">
         <v>2</v>
       </c>
-      <c r="D137" s="13">
+      <c r="D137" s="12">
         <v>3</v>
       </c>
-      <c r="E137" s="13">
+      <c r="E137" s="12">
         <v>4</v>
       </c>
-      <c r="F137" s="13">
+      <c r="F137" s="12">
         <v>5</v>
       </c>
-      <c r="G137" s="13">
+      <c r="G137" s="12">
         <v>6</v>
       </c>
-      <c r="H137" s="13">
+      <c r="H137" s="12">
         <v>7</v>
       </c>
-      <c r="I137" s="13">
+      <c r="I137" s="12">
         <v>8</v>
       </c>
-      <c r="J137" s="13">
+      <c r="J137" s="12">
         <v>9</v>
       </c>
-      <c r="K137" s="13">
+      <c r="K137" s="12">
         <v>10</v>
       </c>
-      <c r="L137" s="13">
+      <c r="L137" s="12">
         <v>11</v>
       </c>
-      <c r="M137" s="13">
+      <c r="M137" s="12">
         <v>12</v>
       </c>
-      <c r="N137" s="13">
+      <c r="N137" s="12">
         <v>13</v>
       </c>
-      <c r="O137" s="13">
+      <c r="O137" s="12">
         <v>14</v>
       </c>
-      <c r="P137" s="13">
+      <c r="P137" s="12">
         <v>15</v>
       </c>
-      <c r="Q137" s="13">
+      <c r="Q137" s="12">
         <v>16</v>
       </c>
       <c r="T137" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U137" s="13">
+      <c r="U137" s="12">
         <v>1</v>
       </c>
-      <c r="V137" s="13">
+      <c r="V137" s="12">
         <v>2</v>
       </c>
-      <c r="W137" s="13">
+      <c r="W137" s="12">
         <v>3</v>
       </c>
-      <c r="X137" s="13">
+      <c r="X137" s="12">
         <v>4</v>
       </c>
-      <c r="Y137" s="13">
+      <c r="Y137" s="12">
         <v>5</v>
       </c>
-      <c r="Z137" s="13">
+      <c r="Z137" s="12">
         <v>6</v>
       </c>
-      <c r="AA137" s="13">
+      <c r="AA137" s="12">
         <v>7</v>
       </c>
-      <c r="AB137" s="13">
+      <c r="AB137" s="12">
         <v>8</v>
       </c>
-      <c r="AC137" s="13">
+      <c r="AC137" s="12">
         <v>9</v>
       </c>
-      <c r="AD137" s="13">
+      <c r="AD137" s="12">
         <v>10</v>
       </c>
-      <c r="AE137" s="13">
+      <c r="AE137" s="12">
         <v>11</v>
       </c>
-      <c r="AF137" s="13">
+      <c r="AF137" s="12">
         <v>12</v>
       </c>
-      <c r="AG137" s="13">
+      <c r="AG137" s="12">
         <v>13</v>
       </c>
-      <c r="AH137" s="13">
+      <c r="AH137" s="12">
         <v>14</v>
       </c>
-      <c r="AI137" s="13">
+      <c r="AI137" s="12">
         <v>15</v>
       </c>
-      <c r="AJ137" s="13">
+      <c r="AJ137" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14861,7 +14864,7 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <f t="shared" ref="C139:Q139" si="20">C$138/C$137</f>
+        <f t="shared" ref="C139:P139" si="20">C$138/C$137</f>
         <v>0.57728894173602852</v>
       </c>
       <c r="D139">
@@ -14990,6 +14993,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="T8:AI8"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="U15:AJ15"/>
     <mergeCell ref="B110:Q110"/>
     <mergeCell ref="U110:AJ110"/>
     <mergeCell ref="B136:Q136"/>
@@ -15000,11 +15008,6 @@
     <mergeCell ref="U62:AJ62"/>
     <mergeCell ref="B86:Q86"/>
     <mergeCell ref="U86:AJ86"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="B8:Q8"/>
-    <mergeCell ref="T8:AI8"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="U15:AJ15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
